--- a/数据整理/stocks/A股/深证主板/002049-紫光国微.xlsx
+++ b/数据整理/stocks/A股/深证主板/002049-紫光国微.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8772,7 +8773,6 @@
           <t>交银稳健配置混合H</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
           <t>84.34</t>
@@ -8788,6 +8788,8670 @@
       </c>
       <c r="H94" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H228"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.7889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>384.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.4104</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>162.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.8656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>163.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.8276</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>101.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.5638</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>131.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.4665</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>112.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.1745</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>58.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.1220</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>138.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.8958</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.8213</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.9096</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>106.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.2318</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.1882</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.1086</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.8336</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.7989</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>59.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.7233</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>41.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.6871</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>54.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.4152</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.4060</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.2034</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>57.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.1608</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>35.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.1336</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.1261</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.0302</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>27.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.9408</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.9084</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.9078</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.8509</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.8064</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.6959</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.6074</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.5415</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.3824</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.3778</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.3331</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.3113</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.3028</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>35.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.2987</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.2696</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.1884</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.1426</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.1425</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.0888</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1.0876</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1.0839</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1.0396</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.9101</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.8907</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.8549</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.8490</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.8286</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.8156</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.8033</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.7833</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.7707</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.7674</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.7488</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.6926</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.6846</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.6823</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.6696</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.6688</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.6340</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.6150</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.6102</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.5929</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.5874</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.5828</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.5748</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.5661</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.5631</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.5399</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.5296</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.5153</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.5062</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.4867</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.4787</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.4773</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.4669</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.4639</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.4492</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.4424</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.3562</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.3149</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2952</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2883</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2835</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2834</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>61.46</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002049-紫光国微.xlsx
+++ b/数据整理/stocks/A股/深证主板/002049-紫光国微.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32869,7 +32870,6 @@
           <t>兴全合兴两年封闭运作混合（LOF）C</t>
         </is>
       </c>
-      <c r="D406" t="inlineStr"/>
       <c r="E406" t="inlineStr">
         <is>
           <t>91.03</t>
@@ -32937,7 +32937,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D408" t="inlineStr"/>
       <c r="E408" t="inlineStr">
         <is>
           <t>75.80</t>
@@ -32989,6 +32988,106 @@
       </c>
       <c r="H409" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>408</v>
+      </c>
+      <c r="D2" t="n">
+        <v>230.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>227</v>
+      </c>
+      <c r="D3" t="n">
+        <v>179.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>93</v>
+      </c>
+      <c r="D4" t="n">
+        <v>119.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>124</v>
+      </c>
+      <c r="D5" t="n">
+        <v>166.36</v>
       </c>
     </row>
   </sheetData>
